--- a/biology/Botanique/Roupala/Roupala.xlsx
+++ b/biology/Botanique/Roupala/Roupala.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F6"/>
+  <dimension ref="A1:H6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Roupala est un genre néotropical de plantes à fleurs de la famille des Proteaceae (famille du noyer du Queensland), et dont l'espèce type est Roupala montana Aubl..
 </t>
@@ -511,7 +523,9 @@
           <t>Description</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Le genre Roupala regroupe des arbres ou des arbustes.
 Les feuilles sont alternes, hétéromorphes, généralement simples, entières ou dentelées.
@@ -524,7 +538,7 @@
 Les étamines sont externes avec la partie libre des filets très courte, les anthères linéaires ou oblongs, et le connectif faisant saillie à l'apex.
 Les 4 écailles hypogynes, sont distinctes, obtuses ou aiguës.
 L'ovaire est sessile, contenant 2 ovules, collatéraux, pendants à partir de l'apex de la loge, avec le style filiforme, persistant et le stigmate petit et terminal.
-Le fruit est un follicule dur, un peu ligneux, oblique, courtement stipité et portant 2 graines ailées comprimées[2].
+Le fruit est un follicule dur, un peu ligneux, oblique, courtement stipité et portant 2 graines ailées comprimées.
 </t>
         </is>
       </c>
@@ -553,9 +567,11 @@
           <t>Répartition</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t xml:space="preserve">On rencontre le genre Roupala dans les néotropiques[2], du Mexique à l'Argentine.
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">On rencontre le genre Roupala dans les néotropiques, du Mexique à l'Argentine.
 </t>
         </is>
       </c>
@@ -584,9 +600,11 @@
           <t>Diagnose</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t>En 1775, le botaniste Aublet propose la diagnose suivante[3] : 
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t>En 1775, le botaniste Aublet propose la diagnose suivante : 
 « ROUPALA. (Tabula 32.)
 CAL. Perianthium nullum. 
 COR. Petala quatuor, oblonga, ovata, obtuſa, baſianguſta, ſubtus convexa, ſuperne concava, receptaculo piſtilli intra glandulas inſerta. 
@@ -622,9 +640,11 @@
           <t>Liste d'espèces</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Selon World Flora Online (WFO)       (21 février 2022)[4] :
+      <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Selon World Flora Online (WFO)       (21 février 2022) :
 Roupala asplenioides Sleumer
 Roupala barnettiae Dorr
 Roupala brachybotrys I.M.Johnst.
@@ -664,7 +684,7 @@
 Roupala steinbachii Sleumer
 Roupala suaveolens Klotzsch
 Roupala thomesiana Moric.
-Selon GBIF       (21 février 2022)[1] :
+Selon GBIF       (21 février 2022) :
 Roupala acuminata Glaz.
 Roupala asplenioides Sleumer
 Roupala aurea Linden
